--- a/branches/main/StructureDefinition-omrs-medication-request.xlsx
+++ b/branches/main/StructureDefinition-omrs-medication-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="477">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T12:26:31+00:00</t>
+    <t>2022-10-12T01:19:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,10 +257,6 @@
   </si>
   <si>
     <t>An order or request for both supply of the medication and the instructions for administration of the medication to a patient. The resource is called "MedicationRequest" rather than "MedicationPrescription" or "MedicationOrder" to generalize the use across inpatient and outpatient settings, including care plans, etc., and to harmonize with workflow patterns.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -2074,30 +2070,30 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2108,28 +2104,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2179,42 +2175,42 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO3" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2225,25 +2221,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2294,19 +2290,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2329,7 +2325,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2340,28 +2336,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2411,19 +2407,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2446,7 +2442,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2457,7 +2453,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2469,16 +2465,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2504,43 +2500,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2563,18 +2559,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2586,16 +2582,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2645,28 +2641,28 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2680,11 +2676,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2703,16 +2699,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2762,7 +2758,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -2783,7 +2779,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2797,11 +2793,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2820,16 +2816,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2879,7 +2875,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -2891,7 +2887,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -2900,7 +2896,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2914,11 +2910,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2931,25 +2927,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -2998,7 +2994,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -3010,7 +3006,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3019,7 +3015,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -3033,7 +3029,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3041,7 +3037,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>77</v>
@@ -3056,16 +3052,16 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3115,7 +3111,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3127,22 +3123,22 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3150,7 +3146,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3158,31 +3154,31 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="I12" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3208,55 +3204,55 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3267,7 +3263,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3278,7 +3274,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
@@ -3290,16 +3286,16 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3325,52 +3321,52 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
+      <c r="AK13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3384,7 +3380,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3392,31 +3388,31 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="I14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3442,64 +3438,64 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3522,16 +3518,16 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3557,14 +3553,14 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3581,7 +3577,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -3593,19 +3589,19 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -3616,7 +3612,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3624,28 +3620,28 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3672,64 +3668,64 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AK16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3746,22 +3742,22 @@
         <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3811,19 +3807,19 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
@@ -3832,7 +3828,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3846,7 +3842,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3866,16 +3862,16 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3926,19 +3922,19 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
@@ -3947,7 +3943,7 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3961,7 +3957,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3969,31 +3965,31 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4019,56 +4015,56 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AE19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -4076,41 +4072,41 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4136,14 +4132,14 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4160,34 +4156,34 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -4195,7 +4191,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4203,31 +4199,31 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4277,42 +4273,42 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4320,10 +4316,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4335,16 +4331,16 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4394,42 +4390,42 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AK22" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4452,13 +4448,13 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4509,7 +4505,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4521,19 +4517,19 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4544,7 +4540,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4555,25 +4551,25 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4624,34 +4620,34 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -4659,7 +4655,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4667,28 +4663,28 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J25" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4739,42 +4735,42 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4797,13 +4793,13 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4854,31 +4850,31 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4889,7 +4885,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4909,19 +4905,19 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4947,52 +4943,52 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -5006,7 +5002,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5029,13 +5025,13 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5086,19 +5082,19 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -5107,10 +5103,10 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5121,7 +5117,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5144,16 +5140,16 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5179,14 +5175,14 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5203,7 +5199,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5215,30 +5211,30 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>301</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5261,16 +5257,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5320,7 +5316,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5332,19 +5328,19 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="AM30" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5355,7 +5351,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5375,16 +5371,16 @@
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5435,7 +5431,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5447,16 +5443,16 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5470,7 +5466,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5490,16 +5486,16 @@
         <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5550,7 +5546,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5562,7 +5558,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -5571,7 +5567,7 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5585,7 +5581,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5605,16 +5601,16 @@
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5665,7 +5661,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5677,30 +5673,30 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5720,20 +5716,20 @@
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -5782,28 +5778,28 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5817,7 +5813,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5840,16 +5836,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5875,52 +5871,52 @@
         <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5934,7 +5930,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5957,13 +5953,13 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6014,7 +6010,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -6026,16 +6022,16 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6049,7 +6045,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6060,7 +6056,7 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6072,13 +6068,13 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6129,7 +6125,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6141,30 +6137,30 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6187,16 +6183,16 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6246,7 +6242,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6258,16 +6254,16 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6281,7 +6277,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6292,7 +6288,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6304,13 +6300,13 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6361,28 +6357,28 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6396,7 +6392,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6407,7 +6403,7 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6419,13 +6415,13 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6476,28 +6472,28 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6511,11 +6507,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6534,16 +6530,16 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6593,7 +6589,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6605,7 +6601,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -6614,7 +6610,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6628,11 +6624,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6645,25 +6641,25 @@
         <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>78</v>
@@ -6712,7 +6708,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6724,7 +6720,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
@@ -6733,7 +6729,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6747,7 +6743,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6770,16 +6766,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6829,19 +6825,19 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
@@ -6850,7 +6846,7 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6864,7 +6860,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6875,7 +6871,7 @@
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -6887,13 +6883,13 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6944,28 +6940,28 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6979,11 +6975,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7002,16 +6998,16 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L45" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7061,7 +7057,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -7073,7 +7069,7 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>78</v>
@@ -7082,7 +7078,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7096,11 +7092,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7113,25 +7109,25 @@
         <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -7180,7 +7176,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7192,7 +7188,7 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
@@ -7201,7 +7197,7 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7215,7 +7211,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7226,7 +7222,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7238,13 +7234,13 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7295,19 +7291,19 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7316,7 +7312,7 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7330,7 +7326,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7341,7 +7337,7 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7353,13 +7349,13 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7410,19 +7406,19 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7431,7 +7427,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7445,7 +7441,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7468,13 +7464,13 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7525,19 +7521,19 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -7546,7 +7542,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7560,7 +7556,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7583,19 +7579,19 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
@@ -7644,28 +7640,28 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7679,7 +7675,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7687,10 +7683,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -7702,16 +7698,16 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7761,42 +7757,42 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>416</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7804,10 +7800,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -7819,13 +7815,13 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7876,42 +7872,42 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="AO52" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7934,16 +7930,16 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7993,28 +7989,28 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -8028,7 +8024,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8051,13 +8047,13 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8108,19 +8104,19 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
@@ -8129,10 +8125,10 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8143,7 +8139,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8166,13 +8162,13 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8223,28 +8219,28 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8258,7 +8254,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8269,7 +8265,7 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8281,13 +8277,13 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8338,28 +8334,28 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8373,11 +8369,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8396,16 +8392,16 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K57" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="L57" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8455,7 +8451,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8467,7 +8463,7 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
@@ -8476,7 +8472,7 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8490,11 +8486,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8507,25 +8503,25 @@
         <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="M58" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -8574,7 +8570,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8586,7 +8582,7 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -8595,7 +8591,7 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8609,7 +8605,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8617,10 +8613,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -8632,16 +8628,16 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8667,58 +8663,58 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -8726,7 +8722,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8737,7 +8733,7 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -8749,13 +8745,13 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8782,58 +8778,58 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -8841,7 +8837,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8852,7 +8848,7 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -8864,13 +8860,13 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8921,29 +8917,29 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8951,16 +8947,16 @@
         <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8979,16 +8975,16 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9038,7 +9034,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -9050,7 +9046,7 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
@@ -9059,7 +9055,7 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9073,7 +9069,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9096,16 +9092,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9155,7 +9151,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9167,16 +9163,16 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>

--- a/branches/main/StructureDefinition-omrs-medication-request.xlsx
+++ b/branches/main/StructureDefinition-omrs-medication-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="480">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-30T12:43:23+00:00</t>
+    <t>2023-03-16T10:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -254,6 +254,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Ordering of medication for patient or group</t>
@@ -2013,13 +2017,13 @@
         <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2085,13 +2089,13 @@
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2100,15 +2104,15 @@
         <v>79</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2119,7 +2123,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
@@ -2128,19 +2132,19 @@
         <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2190,13 +2194,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2220,15 +2224,15 @@
         <v>79</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2239,7 +2243,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
@@ -2248,16 +2252,16 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2308,19 +2312,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2343,10 +2347,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2357,28 +2361,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2428,19 +2432,19 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
@@ -2463,10 +2467,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2477,7 +2481,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -2489,16 +2493,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2524,13 +2528,13 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>79</v>
@@ -2548,19 +2552,19 @@
         <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2583,21 +2587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2609,16 +2613,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2668,19 +2672,19 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
@@ -2689,7 +2693,7 @@
         <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -2703,14 +2707,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2729,16 +2733,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2788,7 +2792,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2809,7 +2813,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -2823,14 +2827,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2849,16 +2853,16 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2908,7 +2912,7 @@
         <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2920,7 +2924,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -2929,7 +2933,7 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>79</v>
@@ -2943,14 +2947,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2963,25 +2967,25 @@
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>79</v>
@@ -3030,7 +3034,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3042,7 +3046,7 @@
         <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3051,7 +3055,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3065,10 +3069,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3076,7 +3080,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -3091,16 +3095,16 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3150,7 +3154,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3162,22 +3166,22 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>79</v>
@@ -3185,10 +3189,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3196,31 +3200,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3246,13 +3250,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3270,31 +3274,31 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>79</v>
@@ -3305,10 +3309,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3319,7 +3323,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
@@ -3331,16 +3335,16 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3366,13 +3370,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3390,28 +3394,28 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3425,10 +3429,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3436,31 +3440,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3486,11 +3490,11 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3508,45 +3512,45 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3557,7 +3561,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3569,16 +3573,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3604,13 +3608,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3628,7 +3632,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3640,19 +3644,19 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3663,10 +3667,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3674,10 +3678,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3686,16 +3690,16 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3722,11 +3726,11 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3744,45 +3748,45 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3793,28 +3797,28 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3864,19 +3868,19 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -3885,7 +3889,7 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3899,10 +3903,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3913,7 +3917,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3922,16 +3926,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3982,19 +3986,19 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4003,7 +4007,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4017,10 +4021,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4028,10 +4032,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4040,19 +4044,19 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4078,56 +4082,56 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>79</v>
@@ -4135,23 +4139,23 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4160,19 +4164,19 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4198,13 +4202,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4222,34 +4226,34 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>79</v>
@@ -4257,10 +4261,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4268,10 +4272,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4280,19 +4284,19 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4342,45 +4346,45 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4388,10 +4392,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4403,16 +4407,16 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4462,45 +4466,45 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4511,7 +4515,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4523,13 +4527,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4580,7 +4584,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4592,19 +4596,19 @@
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4615,10 +4619,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4629,7 +4633,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4638,16 +4642,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4698,34 +4702,34 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>79</v>
@@ -4733,10 +4737,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4744,10 +4748,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4756,16 +4760,16 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4816,45 +4820,45 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4865,7 +4869,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4877,13 +4881,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4934,31 +4938,31 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4969,10 +4973,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4983,7 +4987,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4992,19 +4996,19 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5030,13 +5034,13 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -5054,28 +5058,28 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5089,10 +5093,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5103,7 +5107,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5115,13 +5119,13 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5172,19 +5176,19 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -5193,10 +5197,10 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5207,10 +5211,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5233,16 +5237,16 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5268,13 +5272,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5292,7 +5296,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5304,33 +5308,33 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5341,7 +5345,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5353,16 +5357,16 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5412,7 +5416,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5424,19 +5428,19 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5447,10 +5451,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5461,7 +5465,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5470,16 +5474,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5530,7 +5534,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5542,16 +5546,16 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5565,10 +5569,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5579,7 +5583,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5588,16 +5592,16 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5648,7 +5652,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5660,7 +5664,7 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -5669,7 +5673,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5683,10 +5687,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5706,16 +5710,16 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5766,7 +5770,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5778,16 +5782,16 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5796,15 +5800,15 @@
         <v>79</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5815,7 +5819,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5824,20 +5828,20 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5886,28 +5890,28 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5921,10 +5925,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5935,7 +5939,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5947,16 +5951,16 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5982,13 +5986,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6006,19 +6010,19 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -6027,7 +6031,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6041,10 +6045,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6055,7 +6059,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6067,13 +6071,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6124,7 +6128,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6136,16 +6140,16 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6159,10 +6163,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6173,7 +6177,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6185,13 +6189,13 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6242,7 +6246,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6254,16 +6258,16 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6272,15 +6276,15 @@
         <v>79</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6303,16 +6307,16 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6362,7 +6366,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6374,16 +6378,16 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6397,10 +6401,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6411,7 +6415,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6423,13 +6427,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6480,28 +6484,28 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6515,10 +6519,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6529,7 +6533,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6541,13 +6545,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6598,13 +6602,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -6619,7 +6623,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6633,14 +6637,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6659,16 +6663,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6718,7 +6722,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6730,7 +6734,7 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -6739,7 +6743,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6753,14 +6757,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6773,25 +6777,25 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6840,7 +6844,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6852,7 +6856,7 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -6861,7 +6865,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6875,10 +6879,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6889,7 +6893,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6901,16 +6905,16 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6960,19 +6964,19 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -6981,7 +6985,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6995,10 +6999,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7009,7 +7013,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7021,13 +7025,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7078,13 +7082,13 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7099,7 +7103,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7113,14 +7117,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7139,16 +7143,16 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7198,7 +7202,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7210,7 +7214,7 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7219,7 +7223,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7233,14 +7237,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7253,25 +7257,25 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7320,7 +7324,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7332,7 +7336,7 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7341,7 +7345,7 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7355,10 +7359,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7369,7 +7373,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7381,13 +7385,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7438,19 +7442,19 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7459,7 +7463,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7473,10 +7477,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7487,7 +7491,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7499,13 +7503,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7556,19 +7560,19 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -7577,7 +7581,7 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7591,10 +7595,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7605,7 +7609,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7617,13 +7621,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7674,28 +7678,28 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7709,10 +7713,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7723,7 +7727,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7735,19 +7739,19 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7796,28 +7800,28 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7831,10 +7835,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7842,10 +7846,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7857,16 +7861,16 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7916,45 +7920,45 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7962,10 +7966,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7977,13 +7981,13 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8034,45 +8038,45 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>422</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8083,7 +8087,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8095,16 +8099,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8154,28 +8158,28 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8189,10 +8193,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8203,7 +8207,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8215,13 +8219,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8272,19 +8276,19 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8293,10 +8297,10 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8307,10 +8311,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8321,7 +8325,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8333,13 +8337,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8390,28 +8394,28 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8425,10 +8429,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8439,7 +8443,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8451,13 +8455,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8508,13 +8512,13 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
@@ -8529,7 +8533,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8543,14 +8547,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8569,16 +8573,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8628,7 +8632,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8640,7 +8644,7 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8649,7 +8653,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8663,14 +8667,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8683,25 +8687,25 @@
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8750,7 +8754,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8762,7 +8766,7 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8771,7 +8775,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8785,10 +8789,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8796,10 +8800,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8811,16 +8815,16 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8846,13 +8850,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -8870,34 +8874,34 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -8905,10 +8909,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8919,7 +8923,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8931,13 +8935,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8964,13 +8968,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -8988,34 +8992,34 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>79</v>
@@ -9023,10 +9027,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9037,7 +9041,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9049,13 +9053,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9106,28 +9110,28 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9136,26 +9140,26 @@
         <v>79</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9167,16 +9171,16 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9226,7 +9230,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9238,7 +9242,7 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9247,7 +9251,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9261,10 +9265,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9275,7 +9279,7 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9287,16 +9291,16 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9346,7 +9350,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9358,16 +9362,16 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>

--- a/branches/main/StructureDefinition-omrs-medication-request.xlsx
+++ b/branches/main/StructureDefinition-omrs-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T10:02:34+00:00</t>
+    <t>2023-03-16T12:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-omrs-medication-request.xlsx
+++ b/branches/main/StructureDefinition-omrs-medication-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="483">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/StructureDefinition/omrs-medication-request</t>
+    <t>http://fhir.openmrs.org/core/StructureDefinition/omrs-medication-request</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T12:56:05+00:00</t>
+    <t>2023-12-08T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>An order or request for both supply of the medication and the instructions for administration of the medication to a patient. The resource is called "MedicationRequest" rather than "MedicationPrescription" or "MedicationOrder" to generalize the use across inpatient and outpatient settings, including care plans, etc., and to harmonize with workflow patterns.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -579,7 +583,10 @@
 This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/ValueSet/medication-request-intent-vs</t>
+    <t>The kind of medication order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-intent|4.0.1</t>
   </si>
   <si>
     <t>Request.intent</t>
@@ -631,7 +638,10 @@
     <t>Indicates how quickly the Medication Request should be addressed with respect to other requests.</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/ValueSet/medication-request-priority-vs</t>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
   </si>
   <si>
     <t>Request.priority</t>
@@ -736,7 +746,7 @@
     <t>MedicationRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-patient)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-patient)
 </t>
   </si>
   <si>
@@ -772,7 +782,7 @@
     <t>MedicationRequest.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-encounter)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-encounter)
 </t>
   </si>
   <si>
@@ -850,7 +860,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-practitioner)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-practitioner)
 </t>
   </si>
   <si>
@@ -1023,7 +1033,7 @@
     <t>MedicationRequest.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-medication-request)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-medication-request)
 </t>
   </si>
   <si>
@@ -1636,10 +1646,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2086,16 +2096,16 @@
         <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2104,15 +2114,15 @@
         <v>79</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2123,7 +2133,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
@@ -2132,19 +2142,19 @@
         <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2194,13 +2204,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2224,15 +2234,15 @@
         <v>79</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2243,7 +2253,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
@@ -2252,16 +2262,16 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2312,19 +2322,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2347,10 +2357,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2361,28 +2371,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2432,19 +2442,19 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
@@ -2467,10 +2477,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2481,7 +2491,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -2493,16 +2503,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2528,13 +2538,13 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>79</v>
@@ -2552,19 +2562,19 @@
         <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2587,21 +2597,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2613,16 +2623,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2672,19 +2682,19 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
@@ -2693,7 +2703,7 @@
         <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -2707,14 +2717,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2733,16 +2743,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2792,7 +2802,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2813,7 +2823,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -2827,14 +2837,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2853,16 +2863,16 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2912,7 +2922,7 @@
         <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2924,7 +2934,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -2933,7 +2943,7 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>79</v>
@@ -2947,14 +2957,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2967,25 +2977,25 @@
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>79</v>
@@ -3034,7 +3044,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3046,7 +3056,7 @@
         <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3055,7 +3065,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3069,10 +3079,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3080,7 +3090,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -3095,16 +3105,16 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3154,7 +3164,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3166,22 +3176,22 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>79</v>
@@ -3189,10 +3199,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3200,31 +3210,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3250,13 +3260,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3274,31 +3284,31 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>79</v>
@@ -3309,10 +3319,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3323,7 +3333,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
@@ -3335,16 +3345,16 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3370,13 +3380,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3394,28 +3404,28 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3429,10 +3439,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3440,31 +3450,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3490,11 +3500,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3512,45 +3524,45 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3573,16 +3585,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3608,13 +3620,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3632,7 +3644,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3644,19 +3656,19 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3667,10 +3679,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3678,10 +3690,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3690,16 +3702,16 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3726,11 +3738,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="Z16" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3748,45 +3762,45 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3797,28 +3811,28 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3868,19 +3882,19 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -3889,7 +3903,7 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3903,10 +3917,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3917,7 +3931,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3926,16 +3940,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3986,19 +4000,19 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4007,7 +4021,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4021,10 +4035,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4032,10 +4046,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4044,19 +4058,19 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4082,56 +4096,56 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>79</v>
@@ -4139,23 +4153,23 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4164,19 +4178,19 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4202,13 +4216,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4226,34 +4240,34 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>79</v>
@@ -4261,10 +4275,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4272,10 +4286,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4284,19 +4298,19 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4346,45 +4360,45 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4392,10 +4406,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4407,16 +4421,16 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4466,45 +4480,45 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4527,13 +4541,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4584,7 +4598,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4596,19 +4610,19 @@
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4619,10 +4633,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4633,7 +4647,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4642,16 +4656,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4702,34 +4716,34 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>79</v>
@@ -4737,10 +4751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4748,10 +4762,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4760,16 +4774,16 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4820,45 +4834,45 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4869,7 +4883,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4881,13 +4895,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4938,31 +4952,31 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4973,10 +4987,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4987,7 +5001,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4996,19 +5010,19 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5034,13 +5048,13 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -5058,28 +5072,28 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5093,10 +5107,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5107,7 +5121,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5119,13 +5133,13 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5176,19 +5190,19 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -5197,10 +5211,10 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5211,10 +5225,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5237,16 +5251,16 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5272,13 +5286,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5296,7 +5310,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5308,33 +5322,33 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5357,16 +5371,16 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5416,7 +5430,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5428,19 +5442,19 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5451,10 +5465,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5474,16 +5488,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5534,7 +5548,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5546,16 +5560,16 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5569,10 +5583,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5592,16 +5606,16 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5652,7 +5666,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5664,7 +5678,7 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -5673,7 +5687,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5687,10 +5701,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5710,16 +5724,16 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5770,7 +5784,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5782,16 +5796,16 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5800,15 +5814,15 @@
         <v>79</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5819,7 +5833,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5828,20 +5842,20 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5890,28 +5904,28 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5925,10 +5939,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5939,7 +5953,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5951,16 +5965,16 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5986,13 +6000,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6010,19 +6024,19 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -6031,7 +6045,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6045,10 +6059,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6071,13 +6085,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6128,7 +6142,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6140,16 +6154,16 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6163,10 +6177,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6177,7 +6191,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6189,13 +6203,13 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6246,7 +6260,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6258,16 +6272,16 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6276,15 +6290,15 @@
         <v>79</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6307,16 +6321,16 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6366,7 +6380,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6378,16 +6392,16 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6401,10 +6415,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6415,7 +6429,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6427,13 +6441,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6484,28 +6498,28 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6519,10 +6533,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6533,7 +6547,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6545,13 +6559,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6602,13 +6616,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -6623,7 +6637,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6637,14 +6651,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6663,16 +6677,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6722,7 +6736,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6734,7 +6748,7 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -6743,7 +6757,7 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6757,14 +6771,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6777,25 +6791,25 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6844,7 +6858,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6856,7 +6870,7 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -6865,7 +6879,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6879,10 +6893,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6893,7 +6907,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6905,16 +6919,16 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6964,19 +6978,19 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -6985,7 +6999,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6999,10 +7013,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7013,7 +7027,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7025,13 +7039,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7082,13 +7096,13 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7103,7 +7117,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7117,14 +7131,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7143,16 +7157,16 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7202,7 +7216,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7214,7 +7228,7 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7223,7 +7237,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7237,14 +7251,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7257,25 +7271,25 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7324,7 +7338,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7336,7 +7350,7 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7345,7 +7359,7 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7359,10 +7373,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7373,7 +7387,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7385,13 +7399,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7442,19 +7456,19 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7463,7 +7477,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7477,10 +7491,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7491,7 +7505,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7503,13 +7517,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7560,19 +7574,19 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -7581,7 +7595,7 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7595,10 +7609,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7609,7 +7623,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7621,13 +7635,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7678,19 +7692,19 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
@@ -7699,7 +7713,7 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7713,10 +7727,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7727,7 +7741,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7739,19 +7753,19 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7800,28 +7814,28 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7835,10 +7849,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7846,10 +7860,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7861,16 +7875,16 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7920,45 +7934,45 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7966,10 +7980,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7981,13 +7995,13 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8038,45 +8052,45 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8087,7 +8101,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8099,16 +8113,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8158,28 +8172,28 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8193,10 +8207,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8207,7 +8221,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8219,13 +8233,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8276,19 +8290,19 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8297,10 +8311,10 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8311,10 +8325,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8325,7 +8339,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8337,13 +8351,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8394,28 +8408,28 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8429,10 +8443,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8443,7 +8457,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8455,13 +8469,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8512,13 +8526,13 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
@@ -8533,7 +8547,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8547,14 +8561,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8573,16 +8587,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8632,7 +8646,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8644,7 +8658,7 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8653,7 +8667,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8667,14 +8681,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8687,25 +8701,25 @@
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8754,7 +8768,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8766,7 +8780,7 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8775,7 +8789,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8789,10 +8803,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8800,10 +8814,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8815,16 +8829,16 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8850,13 +8864,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -8874,34 +8888,34 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -8909,10 +8923,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8923,7 +8937,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8935,13 +8949,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8968,58 +8982,58 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF60" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>79</v>
@@ -9027,10 +9041,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9041,7 +9055,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9053,13 +9067,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9110,28 +9124,28 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="AM61" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9140,19 +9154,19 @@
         <v>79</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9171,16 +9185,16 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9230,7 +9244,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9242,7 +9256,7 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9251,7 +9265,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9265,10 +9279,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9291,16 +9305,16 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9350,7 +9364,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9362,16 +9376,16 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>

--- a/branches/main/StructureDefinition-omrs-medication-request.xlsx
+++ b/branches/main/StructureDefinition-omrs-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:14:00+00:00</t>
+    <t>2024-12-11T17:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
